--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294352522144792</v>
+        <v>0.317263</v>
       </c>
       <c r="N2">
-        <v>0.294352522144792</v>
+        <v>0.634526</v>
       </c>
       <c r="O2">
-        <v>0.002545680356091186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P2">
-        <v>0.002545680356091186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q2">
-        <v>9.067091113568447</v>
+        <v>10.039940555766</v>
       </c>
       <c r="R2">
-        <v>9.067091113568447</v>
+        <v>40.15976222306401</v>
       </c>
       <c r="S2">
-        <v>0.0001049731585996029</v>
+        <v>9.201957155467325E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001049731585996029</v>
+        <v>4.24364042199318E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.976043056057</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N3">
-        <v>42.976043056057</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.3716743032917443</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P3">
-        <v>0.3716743032917443</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q3">
-        <v>1323.813009144973</v>
+        <v>0.899565019826</v>
       </c>
       <c r="R3">
-        <v>1323.813009144973</v>
+        <v>5.397390118955999</v>
       </c>
       <c r="S3">
-        <v>0.01532628615116032</v>
+        <v>8.244828467875736E-06</v>
       </c>
       <c r="T3">
-        <v>0.01532628615116032</v>
+        <v>5.703366159103904E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.4144540386251</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N4">
-        <v>70.4144540386251</v>
+        <v>148.173461</v>
       </c>
       <c r="O4">
-        <v>0.6089728435988707</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P4">
-        <v>0.6089728435988707</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q4">
-        <v>2169.012399922076</v>
+        <v>1563.006864317734</v>
       </c>
       <c r="R4">
-        <v>2169.012399922076</v>
+        <v>9378.041185906402</v>
       </c>
       <c r="S4">
-        <v>0.0251114806071378</v>
+        <v>0.01432550533468351</v>
       </c>
       <c r="T4">
-        <v>0.0251114806071378</v>
+        <v>0.00990967885581095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H5">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I5">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J5">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.570626390767208</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N5">
-        <v>0.570626390767208</v>
+        <v>212.597199</v>
       </c>
       <c r="O5">
-        <v>0.004935009162003186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P5">
-        <v>0.004935009162003186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q5">
-        <v>17.57729622696399</v>
+        <v>2242.580278068306</v>
       </c>
       <c r="R5">
-        <v>17.57729622696399</v>
+        <v>13455.48166840984</v>
       </c>
       <c r="S5">
-        <v>0.000203499036402549</v>
+        <v>0.02055403368362485</v>
       </c>
       <c r="T5">
-        <v>0.000203499036402549</v>
+        <v>0.01421826792407132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H6">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I6">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J6">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3727573016189</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N6">
-        <v>1.3727573016189</v>
+        <v>1.841336</v>
       </c>
       <c r="O6">
-        <v>0.01187216359129066</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P6">
-        <v>0.01187216359129066</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q6">
-        <v>42.28574445328616</v>
+        <v>19.423321747984</v>
       </c>
       <c r="R6">
-        <v>42.28574445328616</v>
+        <v>116.539930487904</v>
       </c>
       <c r="S6">
-        <v>0.0004895581287756714</v>
+        <v>0.0001780215465908892</v>
       </c>
       <c r="T6">
-        <v>0.0004895581287756714</v>
+        <v>0.0001231465358404736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.72907579575249</v>
+        <v>31.645482</v>
       </c>
       <c r="H7">
-        <v>75.72907579575249</v>
+        <v>63.290964</v>
       </c>
       <c r="I7">
-        <v>0.101376392339517</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J7">
-        <v>0.101376392339517</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.294352522144792</v>
+        <v>1.3859455</v>
       </c>
       <c r="N7">
-        <v>0.294352522144792</v>
+        <v>2.771891</v>
       </c>
       <c r="O7">
-        <v>0.002545680356091186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P7">
-        <v>0.002545680356091186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q7">
-        <v>22.29104446017387</v>
+        <v>43.858913373231</v>
       </c>
       <c r="R7">
-        <v>22.29104446017387</v>
+        <v>175.435653492924</v>
       </c>
       <c r="S7">
-        <v>0.0002580718905501013</v>
+        <v>0.0004019823020904656</v>
       </c>
       <c r="T7">
-        <v>0.0002580718905501013</v>
+        <v>0.0001853810354967188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H8">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J8">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.976043056057</v>
+        <v>0.317263</v>
       </c>
       <c r="N8">
-        <v>42.976043056057</v>
+        <v>0.634526</v>
       </c>
       <c r="O8">
-        <v>0.3716743032917443</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P8">
-        <v>0.3716743032917443</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q8">
-        <v>3254.536021993663</v>
+        <v>26.40498846001767</v>
       </c>
       <c r="R8">
-        <v>3254.536021993663</v>
+        <v>158.429930760106</v>
       </c>
       <c r="S8">
-        <v>0.03767899999302049</v>
+        <v>0.000242010967246363</v>
       </c>
       <c r="T8">
-        <v>0.03767899999302049</v>
+        <v>0.0001674112646615844</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H9">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J9">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>70.4144540386251</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N9">
-        <v>70.4144540386251</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.6089728435988707</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P9">
-        <v>0.6089728435988707</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q9">
-        <v>5332.42152700757</v>
+        <v>2.365851056149889</v>
       </c>
       <c r="R9">
-        <v>5332.42152700757</v>
+        <v>21.292659505349</v>
       </c>
       <c r="S9">
-        <v>0.06173546991679042</v>
+        <v>2.168385353875973E-05</v>
       </c>
       <c r="T9">
-        <v>0.06173546991679042</v>
+        <v>2.249973246025419E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H10">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J10">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.570626390767208</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N10">
-        <v>0.570626390767208</v>
+        <v>148.173461</v>
       </c>
       <c r="O10">
-        <v>0.004935009162003186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P10">
-        <v>0.004935009162003186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q10">
-        <v>43.21300919746658</v>
+        <v>4110.699459424177</v>
       </c>
       <c r="R10">
-        <v>43.21300919746658</v>
+        <v>36996.29513481758</v>
       </c>
       <c r="S10">
-        <v>0.0005002934250063457</v>
+        <v>0.03767600026565892</v>
       </c>
       <c r="T10">
-        <v>0.0005002934250063457</v>
+        <v>0.03909360135801204</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H11">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J11">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3727573016189</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N11">
-        <v>1.3727573016189</v>
+        <v>212.597199</v>
       </c>
       <c r="O11">
-        <v>0.01187216359129066</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P11">
-        <v>0.01187216359129066</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q11">
-        <v>103.9576417434703</v>
+        <v>5897.973801154542</v>
       </c>
       <c r="R11">
-        <v>103.9576417434703</v>
+        <v>53081.76421039087</v>
       </c>
       <c r="S11">
-        <v>0.00120355711414961</v>
+        <v>0.05405699557765169</v>
       </c>
       <c r="T11">
-        <v>0.00120355711414961</v>
+        <v>0.05609094969804313</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>395.774288171755</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H12">
-        <v>395.774288171755</v>
+        <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.5298119525954027</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J12">
-        <v>0.5298119525954027</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294352522144792</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N12">
-        <v>0.294352522144792</v>
+        <v>1.841336</v>
       </c>
       <c r="O12">
-        <v>0.002545680356091186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P12">
-        <v>0.002545680356091186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q12">
-        <v>116.4971599234158</v>
+        <v>51.08322940380178</v>
       </c>
       <c r="R12">
-        <v>116.4971599234158</v>
+        <v>459.749064634216</v>
       </c>
       <c r="S12">
-        <v>0.001348731880144431</v>
+        <v>0.0004681956887351598</v>
       </c>
       <c r="T12">
-        <v>0.001348731880144431</v>
+        <v>0.0004858120682634015</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>395.774288171755</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H13">
-        <v>395.774288171755</v>
+        <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.5298119525954027</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J13">
-        <v>0.5298119525954027</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.976043056057</v>
+        <v>1.3859455</v>
       </c>
       <c r="N13">
-        <v>42.976043056057</v>
+        <v>2.771891</v>
       </c>
       <c r="O13">
-        <v>0.3716743032917443</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P13">
-        <v>0.3716743032917443</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q13">
-        <v>17008.81284894966</v>
+        <v>115.3487010263202</v>
       </c>
       <c r="R13">
-        <v>17008.81284894966</v>
+        <v>692.0922061579211</v>
       </c>
       <c r="S13">
-        <v>0.196917488356535</v>
+        <v>0.001057211244316999</v>
       </c>
       <c r="T13">
-        <v>0.196917488356535</v>
+        <v>0.0007313266561402744</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H14">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I14">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J14">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>70.4144540386251</v>
+        <v>0.317263</v>
       </c>
       <c r="N14">
-        <v>70.4144540386251</v>
+        <v>0.634526</v>
       </c>
       <c r="O14">
-        <v>0.6089728435988707</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P14">
-        <v>0.6089728435988707</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q14">
-        <v>27868.23042413961</v>
+        <v>166.428837534807</v>
       </c>
       <c r="R14">
-        <v>27868.23042413961</v>
+        <v>998.573025208842</v>
       </c>
       <c r="S14">
-        <v>0.3226410913446925</v>
+        <v>0.00152537858558335</v>
       </c>
       <c r="T14">
-        <v>0.3226410913446925</v>
+        <v>0.001055181758933469</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H15">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I15">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J15">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.570626390767208</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N15">
-        <v>0.570626390767208</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.004935009162003186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P15">
-        <v>0.004935009162003186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q15">
-        <v>225.8392536179095</v>
+        <v>14.911797505677</v>
       </c>
       <c r="R15">
-        <v>225.8392536179095</v>
+        <v>134.206177551093</v>
       </c>
       <c r="S15">
-        <v>0.00261462684019711</v>
+        <v>0.0001366718468063431</v>
       </c>
       <c r="T15">
-        <v>0.00261462684019711</v>
+        <v>0.0001418142758848137</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H16">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I16">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J16">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.3727573016189</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N16">
-        <v>1.3727573016189</v>
+        <v>148.173461</v>
       </c>
       <c r="O16">
-        <v>0.01187216359129066</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P16">
-        <v>0.01187216359129066</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q16">
-        <v>543.3020438807994</v>
+        <v>25909.45773458094</v>
       </c>
       <c r="R16">
-        <v>543.3020438807994</v>
+        <v>233185.1196112284</v>
       </c>
       <c r="S16">
-        <v>0.006290014173833751</v>
+        <v>0.2374692545944213</v>
       </c>
       <c r="T16">
-        <v>0.006290014173833751</v>
+        <v>0.2464042973892949</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>177.529147386026</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H17">
-        <v>177.529147386026</v>
+        <v>1573.730667</v>
       </c>
       <c r="I17">
-        <v>0.2376532964121442</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J17">
-        <v>0.2376532964121442</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.294352522144792</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N17">
-        <v>0.294352522144792</v>
+        <v>212.597199</v>
       </c>
       <c r="O17">
-        <v>0.002545680356091186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P17">
-        <v>0.002545680356091186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q17">
-        <v>52.25615228729126</v>
+        <v>37174.52575384464</v>
       </c>
       <c r="R17">
-        <v>52.25615228729126</v>
+        <v>334570.7317846017</v>
       </c>
       <c r="S17">
-        <v>0.0006049893282367115</v>
+        <v>0.3407175484373134</v>
       </c>
       <c r="T17">
-        <v>0.0006049893282367115</v>
+        <v>0.3535374222414034</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>177.529147386026</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H18">
-        <v>177.529147386026</v>
+        <v>1573.730667</v>
       </c>
       <c r="I18">
-        <v>0.2376532964121442</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J18">
-        <v>0.2376532964121442</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.976043056057</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N18">
-        <v>42.976043056057</v>
+        <v>1.841336</v>
       </c>
       <c r="O18">
-        <v>0.3716743032917443</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P18">
-        <v>0.3716743032917443</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q18">
-        <v>7629.500281766943</v>
+        <v>321.974103494568</v>
       </c>
       <c r="R18">
-        <v>7629.500281766943</v>
+        <v>2897.766931451112</v>
       </c>
       <c r="S18">
-        <v>0.0883296233689701</v>
+        <v>0.002951005425849326</v>
       </c>
       <c r="T18">
-        <v>0.0883296233689701</v>
+        <v>0.003062040261971169</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>177.529147386026</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H19">
-        <v>177.529147386026</v>
+        <v>1573.730667</v>
       </c>
       <c r="I19">
-        <v>0.2376532964121442</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J19">
-        <v>0.2376532964121442</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.4144540386251</v>
+        <v>1.3859455</v>
       </c>
       <c r="N19">
-        <v>70.4144540386251</v>
+        <v>2.771891</v>
       </c>
       <c r="O19">
-        <v>0.6089728435988707</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P19">
-        <v>0.6089728435988707</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q19">
-        <v>12500.61798912963</v>
+        <v>727.0349787135494</v>
       </c>
       <c r="R19">
-        <v>12500.61798912963</v>
+        <v>4362.209872281297</v>
       </c>
       <c r="S19">
-        <v>0.1447244037067488</v>
+        <v>0.006663530214634576</v>
       </c>
       <c r="T19">
-        <v>0.1447244037067488</v>
+        <v>0.00460950192892309</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H20">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I20">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J20">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.570626390767208</v>
+        <v>0.317263</v>
       </c>
       <c r="N20">
-        <v>0.570626390767208</v>
+        <v>0.634526</v>
       </c>
       <c r="O20">
-        <v>0.004935009162003186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P20">
-        <v>0.004935009162003186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q20">
-        <v>101.3028166288677</v>
+        <v>57.57731384364833</v>
       </c>
       <c r="R20">
-        <v>101.3028166288677</v>
+        <v>345.46388306189</v>
       </c>
       <c r="S20">
-        <v>0.001172821195174191</v>
+        <v>0.000527716247096569</v>
       </c>
       <c r="T20">
-        <v>0.001172821195174191</v>
+        <v>0.0003650481022166546</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H21">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I21">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J21">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.3727573016189</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N21">
-        <v>1.3727573016189</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.01187216359129066</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P21">
-        <v>0.01187216359129066</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q21">
-        <v>243.7044333243451</v>
+        <v>5.158849017242776</v>
       </c>
       <c r="R21">
-        <v>243.7044333243451</v>
+        <v>46.42964115518499</v>
       </c>
       <c r="S21">
-        <v>0.002821458813014465</v>
+        <v>4.728265806407544E-05</v>
       </c>
       <c r="T21">
-        <v>0.002821458813014465</v>
+        <v>4.906172025879804E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H22">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I22">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J22">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.294352522144792</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N22">
-        <v>0.294352522144792</v>
+        <v>148.173461</v>
       </c>
       <c r="O22">
-        <v>0.002545680356091186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P22">
-        <v>0.002545680356091186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q22">
-        <v>4.509590697281054</v>
+        <v>8963.572669253988</v>
       </c>
       <c r="R22">
-        <v>4.509590697281054</v>
+        <v>80672.1540232859</v>
       </c>
       <c r="S22">
-        <v>5.220924479038043E-05</v>
+        <v>0.082154282890672</v>
       </c>
       <c r="T22">
-        <v>5.220924479038043E-05</v>
+        <v>0.08524542845671174</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H23">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I23">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J23">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>42.976043056057</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N23">
-        <v>42.976043056057</v>
+        <v>212.597199</v>
       </c>
       <c r="O23">
-        <v>0.3716743032917443</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P23">
-        <v>0.3716743032917443</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q23">
-        <v>658.4090483050535</v>
+        <v>12860.80806681266</v>
       </c>
       <c r="R23">
-        <v>658.4090483050535</v>
+        <v>115747.272601314</v>
       </c>
       <c r="S23">
-        <v>0.007622651695615198</v>
+        <v>0.1178738102662696</v>
       </c>
       <c r="T23">
-        <v>0.007622651695615198</v>
+        <v>0.1223089424728482</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H24">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I24">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J24">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>70.4144540386251</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N24">
-        <v>70.4144540386251</v>
+        <v>1.841336</v>
       </c>
       <c r="O24">
-        <v>0.6089728435988707</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P24">
-        <v>0.6089728435988707</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q24">
-        <v>1078.775763743957</v>
+        <v>111.3893738671155</v>
       </c>
       <c r="R24">
-        <v>1078.775763743957</v>
+        <v>1002.50436480404</v>
       </c>
       <c r="S24">
-        <v>0.01248939686637101</v>
+        <v>0.001020922624199069</v>
       </c>
       <c r="T24">
-        <v>0.01248939686637101</v>
+        <v>0.001059335964709414</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H25">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I25">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J25">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.570626390767208</v>
+        <v>1.3859455</v>
       </c>
       <c r="N25">
-        <v>0.570626390767208</v>
+        <v>2.771891</v>
       </c>
       <c r="O25">
-        <v>0.004935009162003186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P25">
-        <v>0.004935009162003186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q25">
-        <v>8.742209663014412</v>
+        <v>251.5232441970608</v>
       </c>
       <c r="R25">
-        <v>8.742209663014412</v>
+        <v>1509.139465182365</v>
       </c>
       <c r="S25">
-        <v>0.0001012118826172713</v>
+        <v>0.002305298625873102</v>
       </c>
       <c r="T25">
-        <v>0.0001012118826172713</v>
+        <v>0.001594692020660186</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H26">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I26">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J26">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.3727573016189</v>
+        <v>0.317263</v>
       </c>
       <c r="N26">
-        <v>1.3727573016189</v>
+        <v>0.634526</v>
       </c>
       <c r="O26">
-        <v>0.01187216359129066</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P26">
-        <v>0.01187216359129066</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q26">
-        <v>21.03115513296024</v>
+        <v>5.011732015316333</v>
       </c>
       <c r="R26">
-        <v>21.03115513296024</v>
+        <v>30.070392091898</v>
       </c>
       <c r="S26">
-        <v>0.0002434856731506057</v>
+        <v>4.593427921556677E-05</v>
       </c>
       <c r="T26">
-        <v>0.0002434856731506057</v>
+        <v>3.177507144528769E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H27">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I27">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J27">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.294352522144792</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N27">
-        <v>0.294352522144792</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.002545680356091186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P27">
-        <v>0.002545680356091186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q27">
-        <v>15.26293988593064</v>
+        <v>0.4490443727907777</v>
       </c>
       <c r="R27">
-        <v>15.26293988593064</v>
+        <v>4.041399355117</v>
       </c>
       <c r="S27">
-        <v>0.0001767048537699585</v>
+        <v>4.115648948689592E-06</v>
       </c>
       <c r="T27">
-        <v>0.0001767048537699585</v>
+        <v>4.270504782755456E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H28">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I28">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J28">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>42.976043056057</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N28">
-        <v>42.976043056057</v>
+        <v>148.173461</v>
       </c>
       <c r="O28">
-        <v>0.3716743032917443</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P28">
-        <v>0.3716743032917443</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q28">
-        <v>2228.419029401446</v>
+        <v>780.2209085353225</v>
       </c>
       <c r="R28">
-        <v>2228.419029401446</v>
+        <v>7021.988176817902</v>
       </c>
       <c r="S28">
-        <v>0.02579925372644325</v>
+        <v>0.007150997889144434</v>
       </c>
       <c r="T28">
-        <v>0.02579925372644325</v>
+        <v>0.00742006207715767</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H29">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I29">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J29">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>70.4144540386251</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N29">
-        <v>70.4144540386251</v>
+        <v>212.597199</v>
       </c>
       <c r="O29">
-        <v>0.6089728435988707</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P29">
-        <v>0.6089728435988707</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q29">
-        <v>3651.171633458946</v>
+        <v>1119.449992167253</v>
       </c>
       <c r="R29">
-        <v>3651.171633458946</v>
+        <v>10075.04992950528</v>
       </c>
       <c r="S29">
-        <v>0.04227100115713026</v>
+        <v>0.01026015125128932</v>
       </c>
       <c r="T29">
-        <v>0.04227100115713026</v>
+        <v>0.0106462007660727</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H30">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I30">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J30">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.570626390767208</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N30">
-        <v>0.570626390767208</v>
+        <v>1.841336</v>
       </c>
       <c r="O30">
-        <v>0.004935009162003186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P30">
-        <v>0.004935009162003186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q30">
-        <v>29.58845480971042</v>
+        <v>9.695723087947556</v>
       </c>
       <c r="R30">
-        <v>29.58845480971042</v>
+        <v>87.261507791528</v>
       </c>
       <c r="S30">
-        <v>0.0003425567826057193</v>
+        <v>8.886469790434103E-05</v>
       </c>
       <c r="T30">
-        <v>0.0003425567826057193</v>
+        <v>9.220833024144046E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H31">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I31">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J31">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.3727573016189</v>
+        <v>1.3859455</v>
       </c>
       <c r="N31">
-        <v>1.3727573016189</v>
+        <v>2.771891</v>
       </c>
       <c r="O31">
-        <v>0.01187216359129066</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P31">
-        <v>0.01187216359129066</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q31">
-        <v>71.18101798453483</v>
+        <v>21.89346830179883</v>
       </c>
       <c r="R31">
-        <v>71.18101798453483</v>
+        <v>131.360809810793</v>
       </c>
       <c r="S31">
-        <v>0.0008240896883665531</v>
+        <v>0.0002006613048939154</v>
       </c>
       <c r="T31">
-        <v>0.0008240896883665531</v>
+        <v>0.0001388076053046682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.1948375</v>
+      </c>
+      <c r="H32">
+        <v>106.389675</v>
+      </c>
+      <c r="I32">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J32">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.317263</v>
+      </c>
+      <c r="N32">
+        <v>0.634526</v>
+      </c>
+      <c r="O32">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P32">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q32">
+        <v>16.8767537297625</v>
+      </c>
+      <c r="R32">
+        <v>67.50701491905001</v>
+      </c>
+      <c r="S32">
+        <v>0.0001546813588009329</v>
+      </c>
+      <c r="T32">
+        <v>7.133396250888472E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.1948375</v>
+      </c>
+      <c r="H33">
+        <v>106.389675</v>
+      </c>
+      <c r="I33">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J33">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P33">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q33">
+        <v>1.5121341823875</v>
+      </c>
+      <c r="R33">
+        <v>9.072805094324998</v>
+      </c>
+      <c r="S33">
+        <v>1.385923938728516E-05</v>
+      </c>
+      <c r="T33">
+        <v>9.587139043624972E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.1948375</v>
+      </c>
+      <c r="H34">
+        <v>106.389675</v>
+      </c>
+      <c r="I34">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J34">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N34">
+        <v>148.173461</v>
+      </c>
+      <c r="O34">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P34">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q34">
+        <v>2627.354393235862</v>
+      </c>
+      <c r="R34">
+        <v>15764.12635941517</v>
+      </c>
+      <c r="S34">
+        <v>0.02408062321135991</v>
+      </c>
+      <c r="T34">
+        <v>0.01665778882470646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.1948375</v>
+      </c>
+      <c r="H35">
+        <v>106.389675</v>
+      </c>
+      <c r="I35">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J35">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N35">
+        <v>212.597199</v>
+      </c>
+      <c r="O35">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P35">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q35">
+        <v>3769.691151253387</v>
+      </c>
+      <c r="R35">
+        <v>22618.14690752033</v>
+      </c>
+      <c r="S35">
+        <v>0.03455053968746471</v>
+      </c>
+      <c r="T35">
+        <v>0.02390036125069721</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.1948375</v>
+      </c>
+      <c r="H36">
+        <v>106.389675</v>
+      </c>
+      <c r="I36">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J36">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.841336</v>
+      </c>
+      <c r="O36">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P36">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q36">
+        <v>32.6498564343</v>
+      </c>
+      <c r="R36">
+        <v>195.8991386058</v>
+      </c>
+      <c r="S36">
+        <v>0.0002992473694159889</v>
+      </c>
+      <c r="T36">
+        <v>0.0002070045879763158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.1948375</v>
+      </c>
+      <c r="H37">
+        <v>106.389675</v>
+      </c>
+      <c r="I37">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J37">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.3859455</v>
+      </c>
+      <c r="N37">
+        <v>2.771891</v>
+      </c>
+      <c r="O37">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P37">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q37">
+        <v>73.72514565635625</v>
+      </c>
+      <c r="R37">
+        <v>294.900582625425</v>
+      </c>
+      <c r="S37">
+        <v>0.0006757167812320958</v>
+      </c>
+      <c r="T37">
+        <v>0.0003116183870680082</v>
       </c>
     </row>
   </sheetData>
